--- a/vol-node-cpp/test/test-schema.xlsx
+++ b/vol-node-cpp/test/test-schema.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/git/cryptogogue/volition-priv/vol-node-cpp/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849AE45F-6C3E-754B-9222-C928072943F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="2240" windowWidth="21280" windowHeight="17600"/>
+    <workbookView xWindow="8100" yWindow="7440" windowWidth="33420" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +119,54 @@
     <t>function main ( caller, assetArgs, constArgs )
     print ( 'makeUltraRare', caller )
 end</t>
+  </si>
+  <si>
+    <t>ultraRare</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>UltraRare</t>
+  </si>
+  <si>
+    <t>[@]=='common'</t>
+  </si>
+  <si>
+    <t>[@]=='rare'</t>
+  </si>
+  <si>
+    <t>[@]=='pack'</t>
+  </si>
+  <si>
+    <t>ultrarare</t>
+  </si>
+  <si>
+    <t>REWARDS</t>
+  </si>
+  <si>
+    <t>boosterBox</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>function main ( caller, assetArgs, constArgs )
@@ -122,39 +174,23 @@
     randomAward ( caller, 'commons', assetArgs.pack.assetID, 3 )
     randomAward ( caller, 'rares', assetArgs.pack.assetID, 2 )
     randomAward ( caller, 'ultraRares', assetArgs.pack.assetID, 1 )
-    revokeAsset ( caller, assetArgs.pack.assetID )
+    revokeAsset ( assetArgs.pack.assetID )
 end</t>
   </si>
   <si>
-    <t>ultraRare</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>UltraRare</t>
-  </si>
-  <si>
-    <t>[@]=='common'</t>
-  </si>
-  <si>
-    <t>[@]=='rare'</t>
-  </si>
-  <si>
-    <t>[@]=='pack'</t>
-  </si>
-  <si>
-    <t>ultrarare</t>
+    <t>function main ( caller, count )
+    print ( 'boosterBox', caller, count )
+    if count &lt; 3 then
+        awardAsset ( caller, 'pack', 12 )
+    end
+end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +209,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,6 +217,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,8 +286,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,7 +610,7 @@
     <col min="1" max="1" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="4" customWidth="1"/>
@@ -576,82 +627,75 @@
     <col min="18" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="4" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -666,182 +710,264 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>1</v>
       </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1" t="s">
+      <c r="E22" s="15"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="11" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:V5">
-    <sortCondition ref="B5"/>
-    <sortCondition ref="E5"/>
-    <sortCondition ref="C5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:V7">
+    <sortCondition ref="B7"/>
+    <sortCondition ref="E7"/>
+    <sortCondition ref="C7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
